--- a/data/trans_orig/P14A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7FA13A0-062F-48C8-B850-9B3508B92C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA280095-33DA-4A5B-AEEC-FDBA580CF43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{448F4CFC-01BE-4DC5-9C30-E183EF8AE35D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2BBBC4B-240F-43B7-B83F-5C0D555DD2B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>73,27%</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>26,73%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>61,1%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -195,55 +195,55 @@
     <t>54,77%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>76,5%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -252,55 +252,55 @@
     <t>73,11%</t>
   </si>
   <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,70 +309,70 @@
     <t>61,3%</t>
   </si>
   <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>61,26%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>72,39%</t>
+    <t>72,3%</t>
   </si>
   <si>
     <t>79,33%</t>
@@ -381,19 +381,19 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>24,21%</t>
@@ -402,16 +402,16 @@
     <t>20,67%</t>
   </si>
   <si>
-    <t>27,61%</t>
+    <t>27,7%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -423,16 +423,13 @@
     <t>65,08%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>91,08%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>71,63%</t>
+    <t>74,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -441,19 +438,16 @@
     <t>83,1%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>8,92%</t>
   </si>
   <si>
     <t>5,42%</t>
@@ -462,274 +456,280 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,37%</t>
+    <t>25,41%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>76,42%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>72,47%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>80,09%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>19,91%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5BD3FB-7FFE-4FC5-B504-910C61A4E589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ACD195-1753-4EF4-9D3F-CCA7206013CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107A4F04-888C-4202-A15B-B4622E6F07D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7731081-1903-4B72-BDDD-82FD9552A095}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,10 +2331,10 @@
         <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -2343,13 +2343,13 @@
         <v>17604</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2358,13 +2358,13 @@
         <v>25318</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2379,13 @@
         <v>4139</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2394,13 +2394,13 @@
         <v>1008</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2409,13 +2409,13 @@
         <v>5148</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2483,13 @@
         <v>36006</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -2498,13 +2498,13 @@
         <v>72365</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -2513,13 +2513,13 @@
         <v>108372</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2534,13 @@
         <v>13166</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2549,13 +2549,13 @@
         <v>9665</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -2564,13 +2564,13 @@
         <v>22830</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2638,13 @@
         <v>61674</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -2653,13 +2653,13 @@
         <v>107778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -2668,13 +2668,13 @@
         <v>169451</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2689,13 @@
         <v>19098</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -2704,13 +2704,13 @@
         <v>33195</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -2719,13 +2719,13 @@
         <v>52294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2793,13 @@
         <v>32197</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -2808,13 +2808,13 @@
         <v>64412</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -2823,13 +2823,13 @@
         <v>96609</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2844,13 @@
         <v>17378</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2859,13 +2859,13 @@
         <v>19315</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -2874,13 +2874,13 @@
         <v>36693</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2948,13 @@
         <v>60316</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -2963,13 +2963,13 @@
         <v>127919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -2978,13 +2978,13 @@
         <v>188235</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2999,13 @@
         <v>25800</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -3014,13 +3014,13 @@
         <v>39479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3029,13 +3029,13 @@
         <v>65279</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA280095-33DA-4A5B-AEEC-FDBA580CF43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD94F18-3CC9-40B8-836E-8AEACFE2549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2BBBC4B-240F-43B7-B83F-5C0D555DD2B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12D318F9-2795-4910-A82C-F52B218C687D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
   <si>
     <t>Población que recibe medicación o terapia por dolor de espalda en 2012 (Tasa respuesta: 13,48%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,28 +75,28 @@
     <t>73,27%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,202 +105,202 @@
     <t>26,73%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>54,77%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>76,5%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,127 +309,130 @@
     <t>61,3%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
   </si>
   <si>
     <t>61,26%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>71,1%</t>
   </si>
   <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por dolor de espalda en 2015 (Tasa respuesta: 10,75%)</t>
+    <t>Población que recibe medicación o terapia por dolor de espalda en 2016 (Tasa respuesta: 10,75%)</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>74,59%</t>
+    <t>71,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -438,16 +441,19 @@
     <t>83,1%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>5,42%</t>
@@ -456,280 +462,280 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,41%</t>
+    <t>28,49%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>76,42%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>72,47%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ACD195-1753-4EF4-9D3F-CCA7206013CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1CE0C2-23DB-40EA-8069-32FA9738CA63}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7731081-1903-4B72-BDDD-82FD9552A095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5290EDBA-1EBE-42BA-A7A3-5EC2CA0009B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,10 +2337,10 @@
         <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -2343,13 +2349,13 @@
         <v>17604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2358,13 +2364,13 @@
         <v>25318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2385,13 @@
         <v>4139</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2394,13 +2400,13 @@
         <v>1008</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2409,13 +2415,13 @@
         <v>5148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2489,13 @@
         <v>36006</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -2498,13 +2504,13 @@
         <v>72365</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -2513,13 +2519,13 @@
         <v>108372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2540,13 @@
         <v>13166</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2549,13 +2555,13 @@
         <v>9665</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -2564,13 +2570,13 @@
         <v>22830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2644,13 @@
         <v>61674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -2653,13 +2659,13 @@
         <v>107778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -2668,13 +2674,13 @@
         <v>169451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2695,13 @@
         <v>19098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -2704,13 +2710,13 @@
         <v>33195</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -2719,13 +2725,13 @@
         <v>52294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2799,13 @@
         <v>32197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -2808,13 +2814,13 @@
         <v>64412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -2823,13 +2829,13 @@
         <v>96609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2850,13 @@
         <v>17378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2859,13 +2865,13 @@
         <v>19315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -2874,13 +2880,13 @@
         <v>36693</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2954,13 @@
         <v>60316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -2963,13 +2969,13 @@
         <v>127919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -2978,13 +2984,13 @@
         <v>188235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3005,13 @@
         <v>25800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -3014,13 +3020,13 @@
         <v>39479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -3029,13 +3035,13 @@
         <v>65279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3109,13 @@
         <v>197908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>351</v>
@@ -3118,13 +3124,13 @@
         <v>390078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>539</v>
@@ -3133,13 +3139,13 @@
         <v>587986</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3160,13 @@
         <v>79580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -3169,13 +3175,13 @@
         <v>102663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -3184,13 +3190,13 @@
         <v>182243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
